--- a/biology/Mycologie/Psathyrellaceae/Psathyrellaceae.xlsx
+++ b/biology/Mycologie/Psathyrellaceae/Psathyrellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Psathyrellaceae sont une famille de champignons basidiomycètes de l’ordre des Agaricales, regroupant les anciennes Coprinaceae aux côtés des Psathyrelles, dont le genre type a dû être démantelé avec la création de 14 nouvelles espèces[1] (voir plus bas à Systématique).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Psathyrellaceae sont une famille de champignons basidiomycètes de l’ordre des Agaricales, regroupant les anciennes Coprinaceae aux côtés des Psathyrelles, dont le genre type a dû être démantelé avec la création de 14 nouvelles espèces (voir plus bas à Systématique).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sporée brun sombre, brun violacé à noire. Basidiocarpe souvent fragile, voire déliquescent. Voile partiel présent (mais souvent fugace ou absent). Voile général parfois présent. Lames adnées à sublibres, non nuageuses[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sporée brun sombre, brun violacé à noire. Basidiocarpe souvent fragile, voire déliquescent. Voile partiel présent (mais souvent fugace ou absent). Voile général parfois présent. Lames adnées à sublibres, non nuageuses,.
 			Coprinellus micaceus
 			Coprinopsis atramentaria
 			Coprinopsis atramentaria
@@ -549,9 +563,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’éclatement du genre Coprinus et la redistribution de ses espèces dans les genres Coprinellus, Coprinopsis et Parasola ayant constitué une « révolution » systématique fondée sur des données  moléculaires, il aura fallu près de 15 ans pour établir la cohérence des nouveaux genres et comprendre comment les Psathyrella s’organisaient par rapport aux lignées coprinoïdes dans cette famille confuse des Psathyrellaceae afin de trouver des définitions pertinentes pour chacun de ces genres[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’éclatement du genre Coprinus et la redistribution de ses espèces dans les genres Coprinellus, Coprinopsis et Parasola ayant constitué une « révolution » systématique fondée sur des données  moléculaires, il aura fallu près de 15 ans pour établir la cohérence des nouveaux genres et comprendre comment les Psathyrella s’organisaient par rapport aux lignées coprinoïdes dans cette famille confuse des Psathyrellaceae afin de trouver des définitions pertinentes pour chacun de ces genres,.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 octobre 2013)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 octobre 2013) :
 genre Astylospora
 genre Coprinellus
 genre Coprinopsis
@@ -598,7 +616,7 @@
 genre Parasola
 genre Psathyrella
 genre Pseudocoprinus
-Selon NCBI  (29 octobre 2013)[7] :
+Selon NCBI  (29 octobre 2013) :
 genre Coprinellus
 genre Coprinopsis
 genre Parasola
